--- a/src/_data/DecemberServiceChanges_ForTranslation_110722.xlsx
+++ b/src/_data/DecemberServiceChanges_ForTranslation_110722.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\kinn\LACMTA\mybus-v2\src\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC01C15-0914-4C38-9520-C81E26D80DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0FB15-13CF-4AAD-9B04-DB54A97DD168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{74511CEA-1533-4444-8EE6-7F2FEED10AC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
   <si>
     <t>ENGLISH</t>
   </si>
@@ -737,1098 +737,6 @@
   </si>
   <si>
     <t>Рейсы будут более частыми на указанных ниже маршрутах.</t>
-  </si>
-  <si>
-    <t>Weekday: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 161, 162, 164, 165, 166, 177, 179, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754, 761</t>
-  </si>
-  <si>
-    <t>Entre semana: 10, 14, 20, 37, 38, 40, 55, 60,
-62, 76, 78, 94, 108, 110, 115, 117, 120, 125,
-127, 134, 150, 152, 161, 162, 164, 165, 166,
-177, 179, 204, 206, 212, 222, 232, 233, 234,
-240, 246, 258, 260, 267, 268, 287, 344, 460,
-501, 577, 603, 605, 617, 662, 754, 761</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>週間：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>14</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>37</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>40</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>55</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>62</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>76</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>78</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>94</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>108</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>115</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>117</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>125</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>127</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>134</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>152</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>161</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>162</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>164</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="è¨íÀñæí© Pr6N M"/>
-        <family val="2"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>165</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>166</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>177</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>179</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>182</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>204</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>206</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>212</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>222</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>232</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>233</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>234</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>246</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>258</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>260</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>267</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>268</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>287</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>344</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>460</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>501</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>577</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>603</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>605</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>617</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>662</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>754</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>761</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Աշխատանքային օրերին՝ 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 161, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754, 761</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>평일:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 161, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754, 761</t>
-    </r>
-  </si>
-  <si>
-    <t>Các ngày thường trong tuần: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 161, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754, 761</t>
-  </si>
-  <si>
-    <r>
-      <t>平日：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 161, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754, 761</t>
-    </r>
-  </si>
-  <si>
-    <t>В будни: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 161, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754, 761</t>
   </si>
   <si>
     <t>Saturday: 20, 40, 55, 70, 76, 94, 127, 150, 162, 182, 206, 244, 246, 460, 487, 602, 603, 605, 662</t>
@@ -11524,242 +10432,6 @@
     <t>Маршрут 152: в обеденное время в будни частота движения автобусов будет увеличена, промежутки между рейсами уменьшатся с 20 до 15 минут.</t>
   </si>
   <si>
-    <t xml:space="preserve">161 - Improve weekday frequency from every 12 minutes to every 10 minutes. </t>
-  </si>
-  <si>
-    <t>161 – Mejorar la frecuencia entre semana de cada 12 minutos a cada 10 minutos.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">161 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>週間的班次時間間隔從每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>分鐘一班縮短為每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>分鐘一班。</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>161</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">՝ Բարելավել աշխատանքային օրերի հաճախականությունը յուրաքանչյուր </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> րոպեի փոխարեն մինչև </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> րոպեն մեկ: </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>161</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> - 평일 운행 간격을 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">분에서 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">분으로 개선합니다. </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">161 - Tăng tần suất từ 12 phút một chuyến thành 10 phút một chuyến vào các ngày thường trong tuần. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>161</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> - 平日の運行本数を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>分間隔から</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">分間隔に改正。 </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Маршрут 161: будет увеличена частота движения автобусов в будни, промежутки между рейсами уменьшатся с 12 до 10 минут. </t>
-  </si>
-  <si>
     <t>162 - Improve weekday peak frequency from every 15-20 minutes to consistently every 15 minutes, improve weekday midday frequency from every 20 to every 15 minutes, and improve Saturday frequency from every 30 minutes to every 20 minutes.</t>
   </si>
   <si>
@@ -24101,33 +22773,33 @@
     <t>Маршрут 754: будет увеличена частота движения автобусов в будни, промежутки между рейсами уменьшатся с 12 до 10 минут.</t>
   </si>
   <si>
-    <t>761 - Improve weekday evening frequency from every 20-30 minutes to every 15-30 minutes.</t>
-  </si>
-  <si>
-    <t>761 – Mejorar la frecuencia de la noche entre semana de cada 20–30 minutos a cada 15–30 minutos.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">761 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>週間晚間的班次時間間隔從每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20-30</t>
+    <t>901 - Improve the G Line (Orange) Sunday frequency from every 12 minutes to every 10 minutes.</t>
+  </si>
+  <si>
+    <t>901 – Mejorar la frecuencia los dominos de la G Line (Orange) de cada 12 minutos a cada 10 minutos.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">901 - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>週日的G線 (橘線) 班次時間間隔從每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -24146,7 +22818,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>15-30</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -24166,24 +22838,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>761</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">՝ Բարելավել հաճախականությունը աշխատանքային օրերին երեկոյան ժամերին յուրաքանչյուր </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20-30</t>
+      <t>901</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">՝ Բարելավել </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>G Line (Orange)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> կիրակի օրվա հաճախականությունը յուրաքանչյուր </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -24200,7 +22889,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>15-30</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -24219,79 +22908,43 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">761 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>- 평일 저녁 시간 운행 간격을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">분에서 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>30</t>
+      <t>901 - G Line (Orange)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 일요일 운행 간격을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10</t>
     </r>
     <r>
       <rPr>
@@ -24304,16 +22957,16 @@
     </r>
   </si>
   <si>
-    <t>761 - Tăng tần suất từ 20-30 phút một chuyến thành 15-30 phút một chuyến vào tối các ngày thường trong tuần.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>761</t>
+    <t>901 - Tăng tần suất Tuyến G (Màu cam) từ 12 phút một chuyến thành 10 phút một chuyến vào Chủ Nhật.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>901</t>
     </r>
     <r>
       <rPr>
@@ -24322,15 +22975,15 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve"> - 平日夜間の運行本数を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>20～30</t>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>G</t>
     </r>
     <r>
       <rPr>
@@ -24339,6 +22992,23 @@
         <family val="1"/>
         <charset val="128"/>
       </rPr>
+      <t>系統（オレンジライン）の日曜日の運行本数を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="MS Mincho"/>
+        <family val="1"/>
+        <charset val="128"/>
+      </rPr>
       <t>分間隔から</t>
     </r>
     <r>
@@ -24347,7 +23017,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>15～30</t>
+      <t>10</t>
     </r>
     <r>
       <rPr>
@@ -24360,45 +23030,46 @@
     </r>
   </si>
   <si>
-    <t>Маршрут 761: в вечернее время будет увеличена частота движения автобусов в будни, промежутки между рейсами уменьшатся с 20–30 до 15–30 минут.</t>
-  </si>
-  <si>
-    <t>901 - Improve the G Line (Orange) Sunday frequency from every 12 minutes to every 10 minutes.</t>
-  </si>
-  <si>
-    <t>901 – Mejorar la frecuencia los dominos de la G Line (Orange) de cada 12 minutos a cada 10 minutos.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">901 - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>週日的G線 (橘線) 班次時間間隔從每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>分鐘一班縮短為每</t>
+    <t>Маршрут 901: будет увеличена частота движения автобусов по маршруту G Line (Orange) по воскресеньям, промежутки между рейсами уменьшатся с 12 до 10 минут.</t>
+  </si>
+  <si>
+    <t>37 - Improve weekday peak frequency from every 10-15 minutes to consistently every 10 minutes.</t>
+  </si>
+  <si>
+    <t>38 - Improve weekday peak frequency from every 30-60 minutes to every 30-40 minutes.</t>
+  </si>
+  <si>
+    <t>40 - Improve weekday peak frequency from every 10 minutes to every 8-10 minutes, improve weekday midday frequency from every 12 minutes to every 10 minutes, and improve Saturday frequency from every 15 minutes to every 12 minutes.</t>
+  </si>
+  <si>
+    <t>108 - Improve weekday midday frequency from every 15 minutes to every 10 minutes.</t>
+  </si>
+  <si>
+    <t>127 - Improve weekday frequency from 45 minutes to 20-40 minutes. Improve Saturday and Sunday frequency from 60 minutes end to end to 30/60 minutes.</t>
+  </si>
+  <si>
+    <t>206 - Improve weekday midday frequency from every 20 minutes to every 15 minutes. Improve Saturday/Sunday frequency from every 30 minutes to every 20 minutes.</t>
+  </si>
+  <si>
+    <t>Weekday: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+  </si>
+  <si>
+    <t>Entre semana: 10, 14, 20, 37, 38, 40, 55, 60,
+62, 76, 78, 94, 108, 110, 115, 117, 120, 125,
+127, 134, 150, 152, 162, 164, 165, 166,
+177, 179, 204, 206, 212, 222, 232, 233, 234,
+240, 246, 258, 260, 267, 268, 287, 344, 460,
+501, 577, 603, 605, 617, 662, 754</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>週間：</t>
     </r>
     <r>
       <rPr>
@@ -24417,228 +23088,1021 @@
         <rFont val="PMingLiU"/>
         <family val="1"/>
       </rPr>
-      <t>分鐘一班。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">՝ Բարելավել </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>G Line (Orange)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> կիրակի օրվա հաճախականությունը յուրաքանչյուր </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> րոպեի փոխարեն մինչև </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> րոպեն մեկ:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>901 - G Line (Orange)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> 일요일 운행 간격을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분으로 개선합니다.</t>
-    </r>
-  </si>
-  <si>
-    <t>901 - Tăng tần suất Tuyến G (Màu cam) từ 12 phút một chuyến thành 10 phút một chuyến vào Chủ Nhật.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>901</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>G</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>系統（オレンジライン）の日曜日の運行本数を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>分間隔から</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>分間隔に改正。</t>
-    </r>
-  </si>
-  <si>
-    <t>Маршрут 901: будет увеличена частота движения автобусов по маршруту G Line (Orange) по воскресеньям, промежутки между рейсами уменьшатся с 12 до 10 минут.</t>
-  </si>
-  <si>
-    <t>37 - Improve weekday peak frequency from every 10-15 minutes to consistently every 10 minutes.</t>
-  </si>
-  <si>
-    <t>38 - Improve weekday peak frequency from every 30-60 minutes to every 30-40 minutes.</t>
-  </si>
-  <si>
-    <t>40 - Improve weekday peak frequency from every 10 minutes to every 8-10 minutes, improve weekday midday frequency from every 12 minutes to every 10 minutes, and improve Saturday frequency from every 15 minutes to every 12 minutes.</t>
-  </si>
-  <si>
-    <t>108 - Improve weekday midday frequency from every 15 minutes to every 10 minutes.</t>
-  </si>
-  <si>
-    <t>127 - Improve weekday frequency from 45 minutes to 20-40 minutes. Improve Saturday and Sunday frequency from 60 minutes end to end to 30/60 minutes.</t>
-  </si>
-  <si>
-    <t>206 - Improve weekday midday frequency from every 20 minutes to every 15 minutes. Improve Saturday/Sunday frequency from every 30 minutes to every 20 minutes.</t>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>14</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>37</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>62</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>76</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>78</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>94</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>108</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>115</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>117</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>125</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>127</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>134</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>152</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>162</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>164</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="è¨íÀñæí© Pr6N M"/>
+        <family val="2"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>165</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>166</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>177</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>179</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>182</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>204</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>206</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>212</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>222</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>232</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>233</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>234</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>246</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>258</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>260</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>267</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>287</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>344</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>460</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>501</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>577</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>603</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>605</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>617</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>662</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>754</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Աշխատանքային օրերին՝ 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>평일:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+    </r>
+  </si>
+  <si>
+    <t>Các ngày thường trong tuần: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+  </si>
+  <si>
+    <r>
+      <t>平日：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+    </r>
+  </si>
+  <si>
+    <t>В будни: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
   </si>
 </sst>
 </file>
@@ -25463,10 +24927,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E4D96-AB3C-6C4D-8226-B104872A4E89}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5" defaultRowHeight="15"/>
@@ -25609,1878 +25073,1826 @@
     </row>
     <row r="6" spans="1:8" ht="105">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>592</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>593</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>42</v>
+        <v>594</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>43</v>
+        <v>595</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>44</v>
+        <v>596</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>45</v>
+        <v>597</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>46</v>
+        <v>598</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>47</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
       <c r="A7" s="2" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="45">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F8" s="36" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="G8" s="43" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="345">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="E9" s="29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F9" s="36" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="77.25">
       <c r="A10" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E10" s="30" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="G10" s="44" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H10" s="34" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="144">
       <c r="A11" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E11" s="30" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="G11" s="41" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="198">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E12" s="30" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G12" s="41" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="54.75" thickBot="1">
       <c r="A13" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G13" s="41" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="86.25" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="G14" s="45" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="72" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F15" s="38" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="G15" s="46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="H15" s="38" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="135.75" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F16" s="38" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G16" s="46" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H16" s="38" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="60.75" thickBot="1">
       <c r="A17" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F17" s="38" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G17" s="46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H17" s="38" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="120.75" thickBot="1">
       <c r="A18" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G18" s="46" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H18" s="38" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="114.75" thickBot="1">
       <c r="A19" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F19" s="38" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H19" s="38" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="105.75" thickBot="1">
       <c r="A20" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F20" s="38" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H20" s="38" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="57.75" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F21" s="38" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G21" s="46" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H21" s="38" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="114.75" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F22" s="38" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="72" thickBot="1">
       <c r="A23" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F23" s="38" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G23" s="47" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="5" customFormat="1" ht="75.75" thickBot="1">
       <c r="A24" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F24" s="38" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G24" s="48" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="114.75" thickBot="1">
       <c r="A25" s="2" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F25" s="38" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G25" s="47" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H25" s="38" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="60.75" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="F26" s="38" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G26" s="46" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H26" s="38" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="72" thickBot="1">
       <c r="A27" s="2" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F27" s="38" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="57.75" thickBot="1">
       <c r="A28" s="2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D28" s="24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F28" s="38" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="H28" s="49" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="72" thickBot="1">
       <c r="A29" s="2" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="F29" s="38" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="H29" s="38" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="72" thickBot="1">
       <c r="A30" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F30" s="38" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G30" s="47" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="H30" s="38" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="72" thickBot="1">
       <c r="A31" s="2" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F31" s="38" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="60.75" thickBot="1">
       <c r="A32" s="2" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D32" s="24" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="F32" s="38" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="G32" s="47" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="100.5" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="D33" s="24" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F33" s="38" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="G33" s="47" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="H33" s="38" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="105.75" thickBot="1">
       <c r="A34" s="2" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="D34" s="24" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="F34" s="38" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="G34" s="47" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H34" s="38" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="120.75" thickBot="1">
       <c r="A35" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D35" s="24" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="F35" s="38" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="G35" s="47" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="H35" s="38" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="60.75" thickBot="1">
       <c r="A36" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>272</v>
+      </c>
+      <c r="G36" s="47" t="s">
+        <v>273</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="135.75" thickBot="1">
+      <c r="A37" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B37" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="D36" s="24" t="s">
+      <c r="D37" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="E36" s="32" t="s">
+      <c r="E37" s="32" t="s">
         <v>279</v>
       </c>
-      <c r="F36" s="38" t="s">
+      <c r="F37" s="38" t="s">
         <v>280</v>
       </c>
-      <c r="G36" s="47" t="s">
+      <c r="G37" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="H36" s="38" t="s">
+      <c r="H37" s="38" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="57.75" thickBot="1">
-      <c r="A37" s="2" t="s">
+    <row r="38" spans="1:8" ht="72" thickBot="1">
+      <c r="A38" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="D37" s="24" t="s">
+      <c r="D38" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="E37" s="32" t="s">
+      <c r="E38" s="32" t="s">
         <v>287</v>
       </c>
-      <c r="F37" s="38" t="s">
+      <c r="F38" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="G37" s="46" t="s">
+      <c r="G38" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="H37" s="38" t="s">
+      <c r="H38" s="38" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="135.75" thickBot="1">
-      <c r="A38" s="2" t="s">
+    <row r="39" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C38" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D38" s="24" t="s">
+      <c r="D39" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="E38" s="32" t="s">
+      <c r="E39" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F39" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="G38" s="46" t="s">
+      <c r="G39" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="H38" s="38" t="s">
+      <c r="H39" s="38" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="72" thickBot="1">
-      <c r="A39" s="2" t="s">
+    <row r="40" spans="1:8" ht="105.75" thickBot="1">
+      <c r="A40" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="13" t="s">
+      <c r="C40" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D40" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="E39" s="32" t="s">
+      <c r="E40" s="32" t="s">
         <v>303</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F40" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G40" s="47" t="s">
         <v>305</v>
       </c>
-      <c r="H39" s="38" t="s">
+      <c r="H40" s="38" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A40" s="2" t="s">
+    <row r="41" spans="1:8" ht="72" thickBot="1">
+      <c r="A41" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="C40" s="13" t="s">
+      <c r="C41" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="E40" s="32" t="s">
+      <c r="E41" s="32" t="s">
         <v>311</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F41" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="G40" s="46" t="s">
+      <c r="G41" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="H40" s="38" t="s">
+      <c r="H41" s="38" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="105.75" thickBot="1">
-      <c r="A41" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>317</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="E41" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="G41" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="H41" s="38" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="72" thickBot="1">
       <c r="A42" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="F42" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="G42" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="H42" s="38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="105.75" thickBot="1">
+      <c r="A43" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="C42" s="13" t="s">
+      <c r="C43" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="D42" s="24" t="s">
+      <c r="D43" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="E42" s="32" t="s">
+      <c r="E43" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F43" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G43" s="47" t="s">
         <v>329</v>
       </c>
-      <c r="H42" s="38" t="s">
+      <c r="H43" s="38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="72" thickBot="1">
-      <c r="A43" s="2" t="s">
+    <row r="44" spans="1:8" ht="79.5" thickBot="1">
+      <c r="A44" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C44" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="D43" s="24" t="s">
+      <c r="D44" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="E43" s="32" t="s">
+      <c r="E44" s="32" t="s">
         <v>335</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F44" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="G43" s="46" t="s">
+      <c r="G44" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="H43" s="38" t="s">
+      <c r="H44" s="38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="105.75" thickBot="1">
-      <c r="A44" s="2" t="s">
+    <row r="45" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A45" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B45" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C44" s="13" t="s">
+      <c r="C45" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="D44" s="24" t="s">
+      <c r="D45" s="24" t="s">
         <v>342</v>
       </c>
-      <c r="E44" s="32" t="s">
+      <c r="E45" s="32" t="s">
         <v>343</v>
       </c>
-      <c r="F44" s="38" t="s">
+      <c r="F45" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="G44" s="47" t="s">
+      <c r="G45" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H45" s="38" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="79.5" thickBot="1">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:8" ht="112.5" thickBot="1">
+      <c r="A46" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C45" s="13" t="s">
+      <c r="C46" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="D45" s="24" t="s">
+      <c r="D46" s="24" t="s">
         <v>350</v>
       </c>
-      <c r="E45" s="32" t="s">
+      <c r="E46" s="32" t="s">
         <v>351</v>
       </c>
-      <c r="F45" s="38" t="s">
+      <c r="F46" s="38" t="s">
         <v>352</v>
       </c>
-      <c r="G45" s="46" t="s">
+      <c r="G46" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H46" s="38" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:8" ht="100.5" thickBot="1">
+      <c r="A47" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C47" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D47" s="24" t="s">
         <v>357</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="E47" s="32" t="s">
         <v>358</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="F47" s="38" t="s">
         <v>359</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="G47" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="H47" s="38" t="s">
         <v>361</v>
       </c>
-      <c r="H46" s="38" t="s">
+    </row>
+    <row r="48" spans="1:8" ht="150.75" thickBot="1">
+      <c r="A48" s="2" t="s">
         <v>362</v>
       </c>
+      <c r="B48" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="E48" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" s="46" t="s">
+        <v>368</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="47" spans="1:8" ht="112.5" thickBot="1">
-      <c r="A47" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="E47" s="32" t="s">
-        <v>367</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>368</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>369</v>
-      </c>
-      <c r="H47" s="38" t="s">
+    <row r="49" spans="1:8" ht="48" thickBot="1">
+      <c r="A49" s="2" t="s">
         <v>370</v>
       </c>
+      <c r="B49" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>374</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="G49" s="47" t="s">
+        <v>376</v>
+      </c>
+      <c r="H49" s="38" t="s">
+        <v>377</v>
+      </c>
     </row>
-    <row r="48" spans="1:8" ht="100.5" thickBot="1">
-      <c r="A48" s="2" t="s">
-        <v>615</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>373</v>
-      </c>
-      <c r="E48" s="32" t="s">
-        <v>374</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>375</v>
-      </c>
-      <c r="G48" s="46" t="s">
-        <v>376</v>
-      </c>
-      <c r="H48" s="38" t="s">
-        <v>377</v>
+    <row r="50" spans="1:8" ht="86.25" thickBot="1">
+      <c r="A50" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>381</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>382</v>
+      </c>
+      <c r="F50" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="G50" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="H50" s="38" t="s">
+        <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="150.75" thickBot="1">
-      <c r="A49" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C49" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>381</v>
-      </c>
-      <c r="E49" s="32" t="s">
-        <v>382</v>
-      </c>
-      <c r="F49" s="38" t="s">
-        <v>383</v>
-      </c>
-      <c r="G49" s="46" t="s">
-        <v>384</v>
-      </c>
-      <c r="H49" s="38" t="s">
-        <v>385</v>
+    <row r="51" spans="1:8" ht="72" thickBot="1">
+      <c r="A51" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="F51" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="G51" s="47" t="s">
+        <v>392</v>
+      </c>
+      <c r="H51" s="38" t="s">
+        <v>393</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="48" thickBot="1">
-      <c r="A50" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>389</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>390</v>
-      </c>
-      <c r="F50" s="38" t="s">
-        <v>391</v>
-      </c>
-      <c r="G50" s="47" t="s">
-        <v>392</v>
-      </c>
-      <c r="H50" s="38" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="86.25" thickBot="1">
-      <c r="A51" s="2" t="s">
+    <row r="52" spans="1:8" ht="105.75" thickBot="1">
+      <c r="A52" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C51" s="13" t="s">
+      <c r="C52" s="13" t="s">
         <v>396</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D52" s="24" t="s">
         <v>397</v>
       </c>
-      <c r="E51" s="32" t="s">
+      <c r="E52" s="32" t="s">
         <v>398</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="F52" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="G51" s="46" t="s">
+      <c r="G52" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="H51" s="38" t="s">
+      <c r="H52" s="38" t="s">
         <v>401</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="72" thickBot="1">
-      <c r="A52" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>405</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>406</v>
-      </c>
-      <c r="F52" s="38" t="s">
-        <v>407</v>
-      </c>
-      <c r="G52" s="47" t="s">
-        <v>408</v>
-      </c>
-      <c r="H52" s="38" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="105.75" thickBot="1">
       <c r="A53" s="2" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D53" s="24" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="F53" s="38" t="s">
-        <v>415</v>
-      </c>
-      <c r="G53" s="46" t="s">
-        <v>416</v>
+        <v>407</v>
+      </c>
+      <c r="G53" s="47" t="s">
+        <v>408</v>
       </c>
       <c r="H53" s="38" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="105.75" thickBot="1">
       <c r="A54" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="E54" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>415</v>
+      </c>
+      <c r="G54" s="47" t="s">
+        <v>416</v>
+      </c>
+      <c r="H54" s="38" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="72" thickBot="1">
+      <c r="A55" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B55" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C54" s="13" t="s">
+      <c r="C55" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="D54" s="24" t="s">
+      <c r="D55" s="24" t="s">
         <v>421</v>
       </c>
-      <c r="E54" s="32" t="s">
+      <c r="E55" s="32" t="s">
         <v>422</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F55" s="38" t="s">
         <v>423</v>
       </c>
-      <c r="G54" s="47" t="s">
+      <c r="G55" s="47" t="s">
         <v>424</v>
       </c>
-      <c r="H54" s="38" t="s">
+      <c r="H55" s="38" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="105.75" thickBot="1">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:8" ht="150.75" thickBot="1">
+      <c r="A56" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="C55" s="13" t="s">
+      <c r="C56" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D55" s="24" t="s">
+      <c r="D56" s="24" t="s">
         <v>429</v>
       </c>
-      <c r="E55" s="32" t="s">
+      <c r="E56" s="32" t="s">
         <v>430</v>
       </c>
-      <c r="F55" s="38" t="s">
+      <c r="F56" s="38" t="s">
         <v>431</v>
       </c>
-      <c r="G55" s="47" t="s">
+      <c r="G56" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="H55" s="38" t="s">
+      <c r="H56" s="38" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="72" thickBot="1">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:8" ht="57.75" thickBot="1">
+      <c r="A57" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B57" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C57" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="D56" s="24" t="s">
+      <c r="D57" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="E56" s="32" t="s">
+      <c r="E57" s="32" t="s">
         <v>438</v>
       </c>
-      <c r="F56" s="38" t="s">
+      <c r="F57" s="38" t="s">
         <v>439</v>
       </c>
-      <c r="G56" s="47" t="s">
+      <c r="G57" s="47" t="s">
         <v>440</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H57" s="38" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="150.75" thickBot="1">
-      <c r="A57" s="2" t="s">
+    <row r="58" spans="1:8" ht="129" thickBot="1">
+      <c r="A58" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B58" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C58" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D57" s="24" t="s">
+      <c r="D58" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E57" s="32" t="s">
+      <c r="E58" s="32" t="s">
         <v>446</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F58" s="38" t="s">
         <v>447</v>
       </c>
-      <c r="G57" s="47" t="s">
+      <c r="G58" s="47" t="s">
         <v>448</v>
       </c>
-      <c r="H57" s="38" t="s">
+      <c r="H58" s="38" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="57.75" thickBot="1">
-      <c r="A58" s="2" t="s">
+    <row r="59" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A59" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B59" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D59" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="E58" s="32" t="s">
+      <c r="E59" s="32" t="s">
         <v>454</v>
       </c>
-      <c r="F58" s="38" t="s">
+      <c r="F59" s="38" t="s">
         <v>455</v>
       </c>
-      <c r="G58" s="47" t="s">
+      <c r="G59" s="47" t="s">
         <v>456</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H59" s="38" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="129" thickBot="1">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:8" ht="72" thickBot="1">
+      <c r="A60" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C60" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D60" s="24" t="s">
         <v>461</v>
       </c>
-      <c r="E59" s="32" t="s">
+      <c r="E60" s="32" t="s">
         <v>462</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F60" s="38" t="s">
         <v>463</v>
       </c>
-      <c r="G59" s="47" t="s">
+      <c r="G60" s="47" t="s">
         <v>464</v>
       </c>
-      <c r="H59" s="38" t="s">
+      <c r="H60" s="38" t="s">
         <v>465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A60" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>468</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>469</v>
-      </c>
-      <c r="E60" s="32" t="s">
-        <v>470</v>
-      </c>
-      <c r="F60" s="38" t="s">
-        <v>471</v>
-      </c>
-      <c r="G60" s="47" t="s">
-        <v>472</v>
-      </c>
-      <c r="H60" s="38" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="72" thickBot="1">
       <c r="A61" s="2" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D61" s="24" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F61" s="38" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="G61" s="47" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="H61" s="38" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="72" thickBot="1">
       <c r="A62" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>477</v>
+      </c>
+      <c r="E62" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="F62" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="G62" s="47" t="s">
+        <v>480</v>
+      </c>
+      <c r="H62" s="38" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="150.75" thickBot="1">
+      <c r="A63" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B63" s="3" t="s">
         <v>483</v>
       </c>
-      <c r="C62" s="13" t="s">
+      <c r="C63" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D63" s="24" t="s">
         <v>485</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E63" s="32" t="s">
         <v>486</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F63" s="38" t="s">
         <v>487</v>
       </c>
-      <c r="G62" s="47" t="s">
+      <c r="G63" s="46" t="s">
         <v>488</v>
       </c>
-      <c r="H62" s="38" t="s">
+      <c r="H63" s="38" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="72" thickBot="1">
-      <c r="A63" s="2" t="s">
+    <row r="64" spans="1:8" ht="72" thickBot="1">
+      <c r="A64" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B64" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C64" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D64" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="E63" s="32" t="s">
+      <c r="E64" s="32" t="s">
         <v>494</v>
       </c>
-      <c r="F63" s="38" t="s">
+      <c r="F64" s="38" t="s">
         <v>495</v>
       </c>
-      <c r="G63" s="47" t="s">
+      <c r="G64" s="46" t="s">
         <v>496</v>
       </c>
-      <c r="H63" s="38" t="s">
+      <c r="H64" s="38" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="150.75" thickBot="1">
-      <c r="A64" s="2" t="s">
+    <row r="65" spans="1:8" ht="105.75" thickBot="1">
+      <c r="A65" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C65" s="13" t="s">
         <v>500</v>
       </c>
-      <c r="D64" s="24" t="s">
+      <c r="D65" s="24" t="s">
         <v>501</v>
       </c>
-      <c r="E64" s="32" t="s">
+      <c r="E65" s="32" t="s">
         <v>502</v>
       </c>
-      <c r="F64" s="38" t="s">
+      <c r="F65" s="38" t="s">
         <v>503</v>
       </c>
-      <c r="G64" s="46" t="s">
+      <c r="G65" s="46" t="s">
         <v>504</v>
       </c>
-      <c r="H64" s="38" t="s">
+      <c r="H65" s="38" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="72" thickBot="1">
-      <c r="A65" s="2" t="s">
+    <row r="66" spans="1:8" ht="202.5" thickBot="1">
+      <c r="A66" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C65" s="13" t="s">
+      <c r="C66" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="D65" s="24" t="s">
+      <c r="D66" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="E65" s="32" t="s">
+      <c r="E66" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="F65" s="38" t="s">
+      <c r="F66" s="38" t="s">
         <v>511</v>
       </c>
-      <c r="G65" s="46" t="s">
+      <c r="G66" s="46" t="s">
         <v>512</v>
       </c>
-      <c r="H65" s="38" t="s">
+      <c r="H66" s="38" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="105.75" thickBot="1">
-      <c r="A66" s="2" t="s">
+    <row r="67" spans="1:8" ht="72" thickBot="1">
+      <c r="A67" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B67" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C67" s="13" t="s">
         <v>516</v>
       </c>
-      <c r="D66" s="24" t="s">
+      <c r="D67" s="24" t="s">
         <v>517</v>
       </c>
-      <c r="E66" s="32" t="s">
+      <c r="E67" s="32" t="s">
         <v>518</v>
       </c>
-      <c r="F66" s="38" t="s">
+      <c r="F67" s="38" t="s">
         <v>519</v>
       </c>
-      <c r="G66" s="46" t="s">
+      <c r="G67" s="46" t="s">
         <v>520</v>
       </c>
-      <c r="H66" s="38" t="s">
+      <c r="H67" s="38" t="s">
         <v>521</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="202.5" thickBot="1">
-      <c r="A67" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>523</v>
-      </c>
-      <c r="C67" s="13" t="s">
-        <v>524</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>525</v>
-      </c>
-      <c r="E67" s="32" t="s">
-        <v>526</v>
-      </c>
-      <c r="F67" s="38" t="s">
-        <v>527</v>
-      </c>
-      <c r="G67" s="46" t="s">
-        <v>528</v>
-      </c>
-      <c r="H67" s="38" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="72" thickBot="1">
       <c r="A68" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="E68" s="32" t="s">
+        <v>526</v>
+      </c>
+      <c r="F68" s="38" t="s">
+        <v>527</v>
+      </c>
+      <c r="G68" s="46" t="s">
+        <v>528</v>
+      </c>
+      <c r="H68" s="38" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="60.75" thickBot="1">
+      <c r="A69" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="C68" s="13" t="s">
+      <c r="C69" s="13" t="s">
         <v>532</v>
       </c>
-      <c r="D68" s="24" t="s">
+      <c r="D69" s="24" t="s">
         <v>533</v>
       </c>
-      <c r="E68" s="32" t="s">
+      <c r="E69" s="32" t="s">
         <v>534</v>
       </c>
-      <c r="F68" s="38" t="s">
+      <c r="F69" s="38" t="s">
         <v>535</v>
       </c>
-      <c r="G68" s="46" t="s">
+      <c r="G69" s="46" t="s">
         <v>536</v>
       </c>
-      <c r="H68" s="38" t="s">
+      <c r="H69" s="38" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="72" thickBot="1">
-      <c r="A69" s="2" t="s">
+    <row r="70" spans="1:8" ht="90.75" thickBot="1">
+      <c r="A70" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B70" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>540</v>
       </c>
-      <c r="D69" s="24" t="s">
+      <c r="D70" s="24" t="s">
         <v>541</v>
       </c>
-      <c r="E69" s="32" t="s">
+      <c r="E70" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="F69" s="38" t="s">
+      <c r="F70" s="38" t="s">
         <v>543</v>
       </c>
-      <c r="G69" s="46" t="s">
+      <c r="G70" s="46" t="s">
         <v>544</v>
       </c>
-      <c r="H69" s="38" t="s">
+      <c r="H70" s="38" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:8" ht="57.75" thickBot="1">
+      <c r="A71" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B71" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C71" s="13" t="s">
         <v>548</v>
       </c>
-      <c r="D70" s="24" t="s">
+      <c r="D71" s="24" t="s">
         <v>549</v>
       </c>
-      <c r="E70" s="32" t="s">
+      <c r="E71" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F71" s="38" t="s">
         <v>551</v>
       </c>
-      <c r="G70" s="46" t="s">
+      <c r="G71" s="46" t="s">
         <v>552</v>
       </c>
-      <c r="H70" s="38" t="s">
+      <c r="H71" s="38" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="90.75" thickBot="1">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:8" ht="72" thickBot="1">
+      <c r="A72" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>556</v>
       </c>
-      <c r="D71" s="24" t="s">
+      <c r="D72" s="24" t="s">
         <v>557</v>
       </c>
-      <c r="E71" s="32" t="s">
+      <c r="E72" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="F71" s="38" t="s">
+      <c r="F72" s="38" t="s">
         <v>559</v>
       </c>
-      <c r="G71" s="46" t="s">
+      <c r="G72" s="46" t="s">
         <v>560</v>
       </c>
-      <c r="H71" s="38" t="s">
+      <c r="H72" s="38" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="57.75" thickBot="1">
-      <c r="A72" s="2" t="s">
+    <row r="73" spans="1:8" ht="57.75" thickBot="1">
+      <c r="A73" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B73" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>564</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D73" s="24" t="s">
         <v>565</v>
       </c>
-      <c r="E72" s="32" t="s">
+      <c r="E73" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="F72" s="38" t="s">
+      <c r="F73" s="38" t="s">
         <v>567</v>
       </c>
-      <c r="G72" s="46" t="s">
+      <c r="G73" s="46" t="s">
         <v>568</v>
       </c>
-      <c r="H72" s="38" t="s">
+      <c r="H73" s="38" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="72" thickBot="1">
-      <c r="A73" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>573</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>574</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>575</v>
-      </c>
-      <c r="G73" s="46" t="s">
-        <v>576</v>
-      </c>
-      <c r="H73" s="38" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="57.75" thickBot="1">
       <c r="A74" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="D74" s="24" t="s">
+        <v>573</v>
+      </c>
+      <c r="E74" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>575</v>
+      </c>
+      <c r="G74" s="46" t="s">
+        <v>576</v>
+      </c>
+      <c r="H74" s="38" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="72" thickBot="1">
+      <c r="A75" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C75" s="13" t="s">
         <v>580</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D75" s="24" t="s">
         <v>581</v>
       </c>
-      <c r="E74" s="32" t="s">
+      <c r="E75" s="32" t="s">
         <v>582</v>
       </c>
-      <c r="F74" s="38" t="s">
+      <c r="F75" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="G74" s="46" t="s">
+      <c r="G75" s="46" t="s">
         <v>584</v>
       </c>
-      <c r="H74" s="38" t="s">
+      <c r="H75" s="38" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="57.75" thickBot="1">
-      <c r="A75" s="2" t="s">
-        <v>586</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>587</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>588</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>589</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>590</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>591</v>
-      </c>
-      <c r="G75" s="46" t="s">
-        <v>592</v>
-      </c>
-      <c r="H75" s="38" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="60.75" thickBot="1">
-      <c r="A76" s="2" t="s">
-        <v>594</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>595</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>596</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>597</v>
-      </c>
-      <c r="E76" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="F76" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="G76" s="46" t="s">
-        <v>600</v>
-      </c>
-      <c r="H76" s="38" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="72" thickBot="1">
-      <c r="A77" s="2" t="s">
-        <v>602</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>604</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="E77" s="32" t="s">
-        <v>606</v>
-      </c>
-      <c r="F77" s="38" t="s">
-        <v>607</v>
-      </c>
-      <c r="G77" s="46" t="s">
-        <v>608</v>
-      </c>
-      <c r="H77" s="38" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="B78" s="2"/>
+    <row r="76" spans="1:8">
+      <c r="B76" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/_data/DecemberServiceChanges_ForTranslation_110722.xlsx
+++ b/src/_data/DecemberServiceChanges_ForTranslation_110722.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-18.04\home\kinn\LACMTA\mybus-v2\src\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E0FB15-13CF-4AAD-9B04-DB54A97DD168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F92F016-F4CC-4EC0-8583-81E25A87D5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{74511CEA-1533-4444-8EE6-7F2FEED10AC8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="592">
   <si>
     <t>ENGLISH</t>
   </si>
@@ -11149,267 +11149,6 @@
     <t xml:space="preserve">Маршрут 164: в период повышенного спроса и в обеденное время в будни частота движения автобусов будет увеличена, промежутки между рейсами уменьшатся с 20 до 15 минут. </t>
   </si>
   <si>
-    <t>165 - Improve weekday evening frequency from every 20-60 minutes to every 15-60 minutes.</t>
-  </si>
-  <si>
-    <t>165 – Mejorar la frecuencia de la noche entre semana de cada 20 a 60 minutos a cada 15 a 60 minutos.</t>
-  </si>
-  <si>
-    <r>
-      <t>165 -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> 週間晚間的班次時間間隔從每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>分鐘一班縮短為每</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15-60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>分鐘一班。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>165</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">՝ Բարելավել աշխատանքային օրերի երեկոյան հաճախականությունը յուրաքանչյուր </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">20-60 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">րոպեի փոխարեն մինչև </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">15-60 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Sylfaen"/>
-        <family val="1"/>
-      </rPr>
-      <t>րոպեն մեկ:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>165</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve"> - 평일 저녁 시간 운행 간격을 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">분에서 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>15</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>~</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Batang"/>
-        <family val="1"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분으로 개선합니다.</t>
-    </r>
-  </si>
-  <si>
-    <t>165 - Tăng tần suất từ 20-60 phút một chuyến thành 15-60 phút một chuyến vào tối các ngày thường trong tuần.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>165</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> - 平日夜間の運行本数を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri (Cuerpo)"/>
-      </rPr>
-      <t>20～60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>分間隔から</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>15～60</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="MS Mincho"/>
-        <family val="1"/>
-        <charset val="128"/>
-      </rPr>
-      <t>分間隔に改正。</t>
-    </r>
-  </si>
-  <si>
-    <t>Маршрут 165: в вечернее время будет увеличена частота движения автобусов в будни, промежутки между рейсами уменьшатся с 20–60 до 15–60 минут.</t>
-  </si>
-  <si>
     <t>166 - Improve weekday peak frequency from every 15-20 minutes to every 15 minutes. Improve weekday midday frequency from every 20 minutes to every 15 minutes.</t>
   </si>
   <si>
@@ -23051,12 +22790,12 @@
     <t>206 - Improve weekday midday frequency from every 20 minutes to every 15 minutes. Improve Saturday/Sunday frequency from every 30 minutes to every 20 minutes.</t>
   </si>
   <si>
-    <t>Weekday: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+    <t>Weekday: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 166, 177, 179, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
   </si>
   <si>
     <t>Entre semana: 10, 14, 20, 37, 38, 40, 55, 60,
 62, 76, 78, 94, 108, 110, 115, 117, 120, 125,
-127, 134, 150, 152, 162, 164, 165, 166,
+127, 134, 150, 152, 162, 164, 166,
 177, 179, 204, 206, 212, 222, 232, 233, 234,
 240, 246, 258, 260, 267, 268, 287, 344, 460,
 501, 577, 603, 605, 617, 662, 754</t>
@@ -23516,14 +23255,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>164</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="è¨íÀñæí© Pr6N M"/>
-        <family val="2"/>
+      <t>164、166</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
       </rPr>
       <t>、</t>
     </r>
@@ -23535,7 +23274,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>165</t>
+      <t>177</t>
     </r>
     <r>
       <rPr>
@@ -23554,7 +23293,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>166</t>
+      <t>179</t>
     </r>
     <r>
       <rPr>
@@ -23573,7 +23312,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>177</t>
+      <t>182</t>
     </r>
     <r>
       <rPr>
@@ -23592,7 +23331,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>179</t>
+      <t>204</t>
     </r>
     <r>
       <rPr>
@@ -23611,7 +23350,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>182</t>
+      <t>206</t>
     </r>
     <r>
       <rPr>
@@ -23630,7 +23369,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>204</t>
+      <t>212</t>
     </r>
     <r>
       <rPr>
@@ -23649,7 +23388,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>206</t>
+      <t>222</t>
     </r>
     <r>
       <rPr>
@@ -23668,7 +23407,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>212</t>
+      <t>232</t>
     </r>
     <r>
       <rPr>
@@ -23687,7 +23426,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>222</t>
+      <t>233</t>
     </r>
     <r>
       <rPr>
@@ -23706,7 +23445,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>232</t>
+      <t>234</t>
     </r>
     <r>
       <rPr>
@@ -23725,7 +23464,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>233</t>
+      <t>240</t>
     </r>
     <r>
       <rPr>
@@ -23744,7 +23483,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>234</t>
+      <t>246</t>
     </r>
     <r>
       <rPr>
@@ -23763,7 +23502,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>240</t>
+      <t>258</t>
     </r>
     <r>
       <rPr>
@@ -23782,7 +23521,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>246</t>
+      <t>260</t>
     </r>
     <r>
       <rPr>
@@ -23801,7 +23540,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>258</t>
+      <t>267</t>
     </r>
     <r>
       <rPr>
@@ -23820,7 +23559,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>260</t>
+      <t>268</t>
     </r>
     <r>
       <rPr>
@@ -23839,7 +23578,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>267</t>
+      <t>287</t>
     </r>
     <r>
       <rPr>
@@ -23858,7 +23597,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>268</t>
+      <t>344</t>
     </r>
     <r>
       <rPr>
@@ -23877,7 +23616,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>287</t>
+      <t>460</t>
     </r>
     <r>
       <rPr>
@@ -23896,7 +23635,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>344</t>
+      <t>501</t>
     </r>
     <r>
       <rPr>
@@ -23915,7 +23654,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>460</t>
+      <t>577</t>
     </r>
     <r>
       <rPr>
@@ -23934,7 +23673,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>501</t>
+      <t>603</t>
     </r>
     <r>
       <rPr>
@@ -23953,7 +23692,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>577</t>
+      <t>605</t>
     </r>
     <r>
       <rPr>
@@ -23972,7 +23711,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>603</t>
+      <t>617</t>
     </r>
     <r>
       <rPr>
@@ -23991,7 +23730,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>605</t>
+      <t>662</t>
     </r>
     <r>
       <rPr>
@@ -24010,44 +23749,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>617</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>662</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="PMingLiU"/>
-        <family val="1"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>754</t>
     </r>
   </si>
@@ -24062,7 +23763,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>0, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+      <t>0, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
     </r>
   </si>
   <si>
@@ -24082,11 +23783,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
-    </r>
-  </si>
-  <si>
-    <t>Các ngày thường trong tuần: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+      <t xml:space="preserve"> 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+    </r>
+  </si>
+  <si>
+    <t>Các ngày thường trong tuần: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
   </si>
   <si>
     <r>
@@ -24098,11 +23799,11 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
-    </r>
-  </si>
-  <si>
-    <t>В будни: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 165, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+      <t>10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
+    </r>
+  </si>
+  <si>
+    <t>В будни: 10, 14, 20, 37, 38, 40, 55, 60, 62, 76, 78, 94, 108, 110, 115, 117, 120, 125, 127, 134, 150, 152, 162, 164, 166, 177, 179, 182, 204, 206, 212, 222, 232, 233, 234, 240, 246, 258, 260, 267, 268, 287, 344, 460, 501, 577, 603, 605, 617, 662, 754</t>
   </si>
 </sst>
 </file>
@@ -24927,10 +24628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D7E4D96-AB3C-6C4D-8226-B104872A4E89}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView tabSelected="1" zoomScale="121" zoomScaleNormal="121" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="37.5" defaultRowHeight="15"/>
@@ -25073,28 +24774,28 @@
     </row>
     <row r="6" spans="1:8" ht="105">
       <c r="A6" s="2" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="G6" s="40" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="45">
@@ -25281,7 +24982,7 @@
     </row>
     <row r="14" spans="1:8" ht="86.25" thickBot="1">
       <c r="A14" s="2" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>96</v>
@@ -25307,7 +25008,7 @@
     </row>
     <row r="15" spans="1:8" ht="72" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>103</v>
@@ -25333,7 +25034,7 @@
     </row>
     <row r="16" spans="1:8" ht="135.75" thickBot="1">
       <c r="A16" s="2" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>110</v>
@@ -25593,7 +25294,7 @@
     </row>
     <row r="26" spans="1:8" ht="60.75" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>189</v>
@@ -25775,7 +25476,7 @@
     </row>
     <row r="33" spans="1:8" ht="100.5" thickBot="1">
       <c r="A33" s="2" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>244</v>
@@ -25929,7 +25630,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="60.75" thickBot="1">
+    <row r="39" spans="1:8" ht="105.75" thickBot="1">
       <c r="A39" s="2" t="s">
         <v>291</v>
       </c>
@@ -25948,14 +25649,14 @@
       <c r="F39" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="G39" s="46" t="s">
+      <c r="G39" s="47" t="s">
         <v>297</v>
       </c>
       <c r="H39" s="38" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="105.75" thickBot="1">
+    <row r="40" spans="1:8" ht="72" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>299</v>
       </c>
@@ -25974,7 +25675,7 @@
       <c r="F40" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="G40" s="47" t="s">
+      <c r="G40" s="46" t="s">
         <v>305</v>
       </c>
       <c r="H40" s="38" t="s">
@@ -26007,7 +25708,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="72" thickBot="1">
+    <row r="42" spans="1:8" ht="105.75" thickBot="1">
       <c r="A42" s="2" t="s">
         <v>315</v>
       </c>
@@ -26026,14 +25727,14 @@
       <c r="F42" s="38" t="s">
         <v>320</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="47" t="s">
         <v>321</v>
       </c>
       <c r="H42" s="38" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="105.75" thickBot="1">
+    <row r="43" spans="1:8" ht="79.5" thickBot="1">
       <c r="A43" s="2" t="s">
         <v>323</v>
       </c>
@@ -26052,14 +25753,14 @@
       <c r="F43" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="G43" s="47" t="s">
+      <c r="G43" s="46" t="s">
         <v>329</v>
       </c>
       <c r="H43" s="38" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="79.5" thickBot="1">
+    <row r="44" spans="1:8" ht="60.75" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>331</v>
       </c>
@@ -26085,7 +25786,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="60.75" thickBot="1">
+    <row r="45" spans="1:8" ht="112.5" thickBot="1">
       <c r="A45" s="2" t="s">
         <v>339</v>
       </c>
@@ -26111,35 +25812,35 @@
         <v>346</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="112.5" thickBot="1">
+    <row r="46" spans="1:8" ht="100.5" thickBot="1">
       <c r="A46" s="2" t="s">
+        <v>583</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="D46" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="D46" s="24" t="s">
+      <c r="E46" s="32" t="s">
         <v>350</v>
       </c>
-      <c r="E46" s="32" t="s">
+      <c r="F46" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="F46" s="38" t="s">
+      <c r="G46" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="G46" s="46" t="s">
+      <c r="H46" s="38" t="s">
         <v>353</v>
       </c>
-      <c r="H46" s="38" t="s">
+    </row>
+    <row r="47" spans="1:8" ht="150.75" thickBot="1">
+      <c r="A47" s="2" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="100.5" thickBot="1">
-      <c r="A47" s="2" t="s">
-        <v>591</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>355</v>
@@ -26163,7 +25864,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="150.75" thickBot="1">
+    <row r="48" spans="1:8" ht="48" thickBot="1">
       <c r="A48" s="2" t="s">
         <v>362</v>
       </c>
@@ -26182,18 +25883,18 @@
       <c r="F48" s="38" t="s">
         <v>367</v>
       </c>
-      <c r="G48" s="46" t="s">
+      <c r="G48" s="47" t="s">
         <v>368</v>
       </c>
       <c r="H48" s="38" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="48" thickBot="1">
+    <row r="49" spans="1:8" ht="86.25" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C49" s="13" t="s">
@@ -26208,18 +25909,18 @@
       <c r="F49" s="38" t="s">
         <v>375</v>
       </c>
-      <c r="G49" s="47" t="s">
+      <c r="G49" s="46" t="s">
         <v>376</v>
       </c>
       <c r="H49" s="38" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="86.25" thickBot="1">
+    <row r="50" spans="1:8" ht="72" thickBot="1">
       <c r="A50" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>379</v>
       </c>
       <c r="C50" s="13" t="s">
@@ -26234,14 +25935,14 @@
       <c r="F50" s="38" t="s">
         <v>383</v>
       </c>
-      <c r="G50" s="46" t="s">
+      <c r="G50" s="47" t="s">
         <v>384</v>
       </c>
       <c r="H50" s="38" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="72" thickBot="1">
+    <row r="51" spans="1:8" ht="105.75" thickBot="1">
       <c r="A51" s="2" t="s">
         <v>386</v>
       </c>
@@ -26260,7 +25961,7 @@
       <c r="F51" s="38" t="s">
         <v>391</v>
       </c>
-      <c r="G51" s="47" t="s">
+      <c r="G51" s="46" t="s">
         <v>392</v>
       </c>
       <c r="H51" s="38" t="s">
@@ -26286,7 +25987,7 @@
       <c r="F52" s="38" t="s">
         <v>399</v>
       </c>
-      <c r="G52" s="46" t="s">
+      <c r="G52" s="47" t="s">
         <v>400</v>
       </c>
       <c r="H52" s="38" t="s">
@@ -26319,7 +26020,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="105.75" thickBot="1">
+    <row r="54" spans="1:8" ht="72" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>410</v>
       </c>
@@ -26345,11 +26046,11 @@
         <v>417</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="72" thickBot="1">
+    <row r="55" spans="1:8" ht="150.75" thickBot="1">
       <c r="A55" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C55" s="13" t="s">
@@ -26371,14 +26072,14 @@
         <v>425</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="150.75" thickBot="1">
+    <row r="56" spans="1:8" ht="57.75" thickBot="1">
       <c r="A56" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="15" t="s">
         <v>428</v>
       </c>
       <c r="D56" s="24" t="s">
@@ -26397,14 +26098,14 @@
         <v>433</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="57.75" thickBot="1">
+    <row r="57" spans="1:8" ht="129" thickBot="1">
       <c r="A57" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="13" t="s">
         <v>436</v>
       </c>
       <c r="D57" s="24" t="s">
@@ -26423,11 +26124,11 @@
         <v>441</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="129" thickBot="1">
+    <row r="58" spans="1:8" ht="60.75" thickBot="1">
       <c r="A58" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>443</v>
       </c>
       <c r="C58" s="13" t="s">
@@ -26449,7 +26150,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="60.75" thickBot="1">
+    <row r="59" spans="1:8" ht="72" thickBot="1">
       <c r="A59" s="2" t="s">
         <v>450</v>
       </c>
@@ -26527,11 +26228,11 @@
         <v>473</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="72" thickBot="1">
+    <row r="62" spans="1:8" ht="150.75" thickBot="1">
       <c r="A62" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="3" t="s">
         <v>475</v>
       </c>
       <c r="C62" s="13" t="s">
@@ -26546,18 +26247,18 @@
       <c r="F62" s="38" t="s">
         <v>479</v>
       </c>
-      <c r="G62" s="47" t="s">
+      <c r="G62" s="46" t="s">
         <v>480</v>
       </c>
       <c r="H62" s="38" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="150.75" thickBot="1">
+    <row r="63" spans="1:8" ht="72" thickBot="1">
       <c r="A63" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="2" t="s">
         <v>483</v>
       </c>
       <c r="C63" s="13" t="s">
@@ -26579,7 +26280,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="72" thickBot="1">
+    <row r="64" spans="1:8" ht="105.75" thickBot="1">
       <c r="A64" s="2" t="s">
         <v>490</v>
       </c>
@@ -26605,7 +26306,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="105.75" thickBot="1">
+    <row r="65" spans="1:8" ht="202.5" thickBot="1">
       <c r="A65" s="2" t="s">
         <v>498</v>
       </c>
@@ -26631,7 +26332,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="202.5" thickBot="1">
+    <row r="66" spans="1:8" ht="72" thickBot="1">
       <c r="A66" s="2" t="s">
         <v>506</v>
       </c>
@@ -26683,7 +26384,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="72" thickBot="1">
+    <row r="68" spans="1:8" ht="60.75" thickBot="1">
       <c r="A68" s="2" t="s">
         <v>522</v>
       </c>
@@ -26709,7 +26410,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="60.75" thickBot="1">
+    <row r="69" spans="1:8" ht="90.75" thickBot="1">
       <c r="A69" s="2" t="s">
         <v>530</v>
       </c>
@@ -26735,7 +26436,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="90.75" thickBot="1">
+    <row r="70" spans="1:8" ht="57.75" thickBot="1">
       <c r="A70" s="2" t="s">
         <v>538</v>
       </c>
@@ -26761,7 +26462,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="57.75" thickBot="1">
+    <row r="71" spans="1:8" ht="72" thickBot="1">
       <c r="A71" s="2" t="s">
         <v>546</v>
       </c>
@@ -26787,7 +26488,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="72" thickBot="1">
+    <row r="72" spans="1:8" ht="57.75" thickBot="1">
       <c r="A72" s="2" t="s">
         <v>554</v>
       </c>
@@ -26839,7 +26540,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="57.75" thickBot="1">
+    <row r="74" spans="1:8" ht="72" thickBot="1">
       <c r="A74" s="2" t="s">
         <v>570</v>
       </c>
@@ -26865,34 +26566,8 @@
         <v>577</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="72" thickBot="1">
-      <c r="A75" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>579</v>
-      </c>
-      <c r="C75" s="13" t="s">
-        <v>580</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>581</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>582</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>583</v>
-      </c>
-      <c r="G75" s="46" t="s">
-        <v>584</v>
-      </c>
-      <c r="H75" s="38" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="B76" s="2"/>
+    <row r="75" spans="1:8">
+      <c r="B75" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
